--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value836.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value836.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6295439956359474</v>
+        <v>0.9786997437477112</v>
       </c>
       <c r="B1">
-        <v>1.601270126927343</v>
+        <v>1.373613834381104</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.679993629455566</v>
       </c>
       <c r="D1">
-        <v>2.624707437848591</v>
+        <v>2.523476362228394</v>
       </c>
       <c r="E1">
-        <v>1.587184267701007</v>
+        <v>0.6842707395553589</v>
       </c>
     </row>
   </sheetData>
